--- a/markets.xlsx
+++ b/markets.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32906c935fa0eb4f/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92529AD8-70C4-4515-91E6-485C205E244F}"/>
+  <xr:revisionPtr revIDLastSave="427" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B18745FB-673D-488C-99F5-EC70B7EE57FF}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="3610" windowWidth="19250" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19000" yWindow="2410" windowWidth="19250" windowHeight="16940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indiana Agbioscience" sheetId="1" r:id="rId1"/>
+    <sheet name="Deals" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="97">
   <si>
     <t>Employment</t>
   </si>
@@ -47,9 +48,6 @@
     <t>Indiana Agbioscience Ecosystem</t>
   </si>
   <si>
-    <t>Economic Contributions in $mil</t>
-  </si>
-  <si>
     <t>GDP</t>
   </si>
   <si>
@@ -93,6 +91,243 @@
   </si>
   <si>
     <t>Indiana Economy</t>
+  </si>
+  <si>
+    <t>US Rank</t>
+  </si>
+  <si>
+    <t>Economic Contributions</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>What?</t>
+  </si>
+  <si>
+    <t>VC Exit</t>
+  </si>
+  <si>
+    <t>Partnership</t>
+  </si>
+  <si>
+    <t>VC Deal</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Animal Biotech</t>
+  </si>
+  <si>
+    <t>Dechra Pharmaceuticals</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Robotics - Tractors</t>
+  </si>
+  <si>
+    <t>Monarch Tractor</t>
+  </si>
+  <si>
+    <t>Soil Biology</t>
+  </si>
+  <si>
+    <t>Pattern Ag</t>
+  </si>
+  <si>
+    <t>EarthOptics</t>
+  </si>
+  <si>
+    <t>Undisclosed sum</t>
+  </si>
+  <si>
+    <t>Purdue University</t>
+  </si>
+  <si>
+    <t>Bayer</t>
+  </si>
+  <si>
+    <t>Regenerative Agriculture</t>
+  </si>
+  <si>
+    <t>Ahold Delhaize</t>
+  </si>
+  <si>
+    <t>General Mills</t>
+  </si>
+  <si>
+    <t>Develop, measure, implement regen ag practices.</t>
+  </si>
+  <si>
+    <t>Transition farmers to regen ag via technical and financial support.</t>
+  </si>
+  <si>
+    <t>Robotics - implements - weeder</t>
+  </si>
+  <si>
+    <t>Carbon Robotics</t>
+  </si>
+  <si>
+    <t>Colossal Laboratories &amp; Biosciences</t>
+  </si>
+  <si>
+    <t>Plant Biotech</t>
+  </si>
+  <si>
+    <t>Constructive Bio</t>
+  </si>
+  <si>
+    <t>Deal Type</t>
+  </si>
+  <si>
+    <t>Series C</t>
+  </si>
+  <si>
+    <t>Series B</t>
+  </si>
+  <si>
+    <t>Series D</t>
+  </si>
+  <si>
+    <t>Deal ($M)</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Resources:</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Pitchbook AgTech Report</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>LBO</t>
+  </si>
+  <si>
+    <t>Drones &amp; imagery analytics</t>
+  </si>
+  <si>
+    <t>Muon Space</t>
+  </si>
+  <si>
+    <t>3.9x</t>
+  </si>
+  <si>
+    <t>1.8x</t>
+  </si>
+  <si>
+    <t>Valuation Step-up</t>
+  </si>
+  <si>
+    <t>(post to pre)</t>
+  </si>
+  <si>
+    <t>Biomaterials</t>
+  </si>
+  <si>
+    <t>Applied Carbon</t>
+  </si>
+  <si>
+    <t>Series A</t>
+  </si>
+  <si>
+    <t>3.3x</t>
+  </si>
+  <si>
+    <t>Aquaculture</t>
+  </si>
+  <si>
+    <t>Standing Ovation</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Agribusiness Marketplaces</t>
+  </si>
+  <si>
+    <t>Agrim</t>
+  </si>
+  <si>
+    <t>Solasta Bio</t>
+  </si>
+  <si>
+    <t>1.9x</t>
+  </si>
+  <si>
+    <t>Corteva, FMC Ventures, Forbion</t>
+  </si>
+  <si>
+    <t>Indoor Growers</t>
+  </si>
+  <si>
+    <t>Vision Greens</t>
+  </si>
+  <si>
+    <t>Early-stage VC</t>
+  </si>
+  <si>
+    <t>1.4x</t>
+  </si>
+  <si>
+    <t>Field IoT, Plant data, analysis</t>
+  </si>
+  <si>
+    <t>Late-stage VC</t>
+  </si>
+  <si>
+    <t>Micropep</t>
+  </si>
+  <si>
+    <t>Bpifrance, Z Impact Ventures</t>
+  </si>
+  <si>
+    <t>Pyka</t>
+  </si>
+  <si>
+    <t>0.8x</t>
+  </si>
+  <si>
+    <t>Pairwise</t>
+  </si>
+  <si>
+    <t>Plant data &amp; analysis</t>
+  </si>
+  <si>
+    <t>Arzeda</t>
+  </si>
+  <si>
+    <t>Calyxia</t>
+  </si>
+  <si>
+    <t>0.4x</t>
+  </si>
+  <si>
+    <t>Series B3</t>
+  </si>
+  <si>
+    <t>InnerPlant</t>
+  </si>
+  <si>
+    <t>1.1x</t>
+  </si>
+  <si>
+    <t>Post-Money Valuation ($M)</t>
+  </si>
+  <si>
+    <t>AgroSpheres</t>
+  </si>
+  <si>
+    <t>Series B2</t>
   </si>
 </sst>
 </file>
@@ -102,10 +337,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,7 +362,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -127,16 +370,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -150,6 +504,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G15"/>
+  <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -427,34 +785,38 @@
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>30100000000</v>
@@ -467,15 +829,18 @@
         <v>10700000000</v>
       </c>
       <c r="F4" s="2">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2">
         <v>67908</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>29800000000</v>
@@ -488,15 +853,18 @@
         <v>8400000000</v>
       </c>
       <c r="F5" s="2">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2">
         <v>63693</v>
       </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>3900000000</v>
@@ -509,15 +877,18 @@
         <v>1800000000</v>
       </c>
       <c r="F6" s="2">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2">
         <v>6594</v>
       </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <v>3500000000</v>
@@ -530,15 +901,18 @@
         <v>800000000</v>
       </c>
       <c r="F7" s="2">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2">
         <v>3149</v>
       </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
         <v>2300000000</v>
@@ -551,34 +925,37 @@
         <v>900000000</v>
       </c>
       <c r="F8" s="2">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2">
         <v>5731</v>
       </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
         <v>3</v>
       </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1">
         <v>52700000000</v>
@@ -587,9 +964,10 @@
       <c r="E14" s="1">
         <v>15000000000</v>
       </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>1</v>
       </c>
@@ -603,11 +981,790 @@
       <c r="E15" s="1">
         <v>22700000000</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1"/>
+      <c r="G15" s="2">
         <v>147075</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF2EB60-93B1-45F2-88DB-27C025A9F66C}">
+  <dimension ref="A1:L45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.453125" customWidth="1"/>
+    <col min="6" max="6" width="30.7265625" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="56.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1"/>
+      <c r="K1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2"/>
+      <c r="K2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J3"/>
+      <c r="K3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J4"/>
+      <c r="K4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J5"/>
+      <c r="K5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J6"/>
+      <c r="K6"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H8" s="5">
+        <f>SUM(H9:H1048576)</f>
+        <v>1393.7</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="6">
+        <v>45582</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8">
+        <v>70</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="10">
+        <v>45561</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="4">
+        <v>44.4</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="10">
+        <v>45558</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="4">
+        <v>40</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="17">
+        <v>130</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="10">
+        <v>45554</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="10">
+        <v>45554</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="10">
+        <v>45547</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="4">
+        <v>55</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="10">
+        <v>45547</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
+        <v>40</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="10">
+        <v>45540</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="18">
+        <v>35</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="10">
+        <v>45539</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="4">
+        <v>58</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="10">
+        <v>45534</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="4">
+        <v>17.3</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="10">
+        <v>45531</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="10">
+        <v>45526</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="4">
+        <v>13.9</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="4">
+        <v>32.4</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="10">
+        <v>45516</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="4">
+        <v>13.1</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="12"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="10">
+        <v>45509</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="4">
+        <v>55</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="18">
+        <v>265.3</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22" s="12"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="10">
+        <v>45504</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="4">
+        <v>21.5</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="18">
+        <v>55</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="L23" s="12"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="10">
+        <v>45498</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="4">
+        <v>30</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="17">
+        <v>127</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="L24" s="12"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="10">
+        <v>45498</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="4">
+        <v>38</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="L25" s="12"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="10">
+        <v>45496</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="4">
+        <v>162</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1564</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L26" s="12"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="10">
+        <v>45495</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="4">
+        <v>133</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="4">
+        <v>518</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="10">
+        <v>45494</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="4">
+        <v>30</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="J28" s="4">
+        <v>120</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="12"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="10">
+        <v>45486</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="4">
+        <v>41.5</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="13">
+        <v>45491</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="3">
+        <v>520</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="15"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H32" s="1"/>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H45" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{93909272-6FE4-4279-B4E7-605AC5DDF083}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>